--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B4A7B9-7995-42CB-90B5-47711A6F39F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{40B4A7B9-7995-42CB-90B5-47711A6F39F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D05D75D-55F1-4A25-A9B8-EA2D47D34B46}"/>
   <bookViews>
-    <workbookView xWindow="1226" yWindow="-103" windowWidth="31791" windowHeight="18720" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>v11.2.0</t>
   </si>
@@ -151,6 +150,9 @@
   </si>
   <si>
     <t>CUDA Container Tag Support EOL Chart</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -158,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -236,13 +238,10 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,6 +254,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -585,514 +587,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>44927</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>45047</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>45108</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>45261</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>45474</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>510</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>515</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>450</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>525</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="26.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>45200</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>45200</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>45078</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>45078</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>45078</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>45078</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>45078</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>45078</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>45078</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>45078</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>45078</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="3">
         <v>45078</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="3">
         <v>45078</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="B29" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>

--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\srivatsans\cuda-installer\containers-g\cuda\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286AD301-11B6-42C4-9B43-ADF2A66E5FFC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>11.8.0</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>to plan the transition</t>
+  </si>
+  <si>
+    <t>12.4.0</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -290,23 +293,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,10 +318,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,21 +331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A38"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,15 +663,15 @@
     <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
@@ -708,7 +685,7 @@
         <v>46174</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -722,7 +699,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -736,13 +713,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -750,71 +726,75 @@
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
@@ -822,9 +802,9 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -832,9 +812,9 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>25</v>
@@ -842,9 +822,9 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
@@ -852,58 +832,52 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5">
-        <v>45323</v>
-      </c>
-      <c r="D19" s="5">
-        <f>EDATE(C19,6)</f>
-        <v>45505</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D19,"overdue", "planned")</f>
-        <v>planned</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" ref="D20:D28" si="0">EDATE(C20,6)</f>
-        <v>45444</v>
+        <f>EDATE(C20,6)</f>
+        <v>45505</v>
       </c>
       <c r="E20" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D20,"overdue", "planned")</f>
@@ -911,15 +885,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>18</v>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="5">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>45383</v>
+        <f t="shared" ref="D21:D29" si="0">EDATE(C21,6)</f>
+        <v>45444</v>
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D21,"overdue", "planned")</f>
@@ -928,46 +902,46 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" ref="E22:E27" ca="1" si="1">IF(TODAY()&gt;D22,"overdue", "on track")</f>
+        <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E23:E28" ca="1" si="1">IF(TODAY()&gt;D23,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45139</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -976,7 +950,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5">
         <v>45108</v>
@@ -992,7 +966,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5">
         <v>45108</v>
@@ -1008,7 +982,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5">
         <v>45108</v>
@@ -1024,7 +998,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5">
         <v>45108</v>
@@ -1034,83 +1008,100 @@
         <v>45292</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D28,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D29,"overdue", "on track")</f>
+        <v>overdue</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E2">
     <cfRule type="colorScale" priority="1">
@@ -1135,13 +1126,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A44" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A44" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A45" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <webPublishItems count="1">
-    <webPublishItem id="9547" divId="Container_Support_Matrix_9547" sourceType="range" sourceRef="A1:E17" destinationFile="C:\Users\srivatsans\OneDrive - NVIDIA Corporation\Desktop\container_support_eol_web.mht"/>
+    <webPublishItem id="9547" divId="Container_Support_Matrix_9547" sourceType="range" sourceRef="A1:E18" destinationFile="C:\Users\srivatsans\OneDrive - NVIDIA Corporation\Desktop\container_support_eol_web.mht"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286AD301-11B6-42C4-9B43-ADF2A66E5FFC}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12097C93-7C86-4E6F-A65F-11B0EA2E7284}"/>
   <bookViews>
     <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>11.8.0</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>12.4.0</t>
+  </si>
+  <si>
+    <t>12.4.1</t>
   </si>
 </sst>
 </file>
@@ -648,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +731,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
@@ -756,7 +759,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
@@ -770,7 +773,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>25</v>
@@ -778,11 +781,13 @@
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>25</v>
@@ -794,17 +799,19 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -814,7 +821,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>25</v>
@@ -824,7 +831,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
@@ -834,7 +841,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>25</v>
@@ -843,57 +850,51 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5">
-        <v>45323</v>
-      </c>
-      <c r="D20" s="5">
-        <f>EDATE(C20,6)</f>
-        <v>45505</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D20,"overdue", "planned")</f>
-        <v>planned</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ref="D21:D29" si="0">EDATE(C21,6)</f>
-        <v>45444</v>
+        <f>EDATE(C21,6)</f>
+        <v>45505</v>
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D21,"overdue", "planned")</f>
@@ -901,63 +902,63 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45261</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:D30" si="0">EDATE(C22,6)</f>
+        <v>45444</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C23" s="5">
         <v>45200</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>45383</v>
       </c>
-      <c r="E22" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
+      <c r="E23" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
         <v>overdue</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>45017</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" ref="E23:E28" ca="1" si="1">IF(TODAY()&gt;D23,"overdue", "on track")</f>
+      <c r="E24" s="4" t="str">
+        <f t="shared" ref="E24:E29" ca="1" si="1">IF(TODAY()&gt;D24,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>44958</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>45139</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>overdue</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5">
-        <v>45108</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>45292</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -966,7 +967,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C26" s="5">
         <v>45108</v>
@@ -982,7 +983,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5">
         <v>45108</v>
@@ -998,7 +999,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5">
         <v>45108</v>
@@ -1014,7 +1015,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5">
         <v>45108</v>
@@ -1024,83 +1025,99 @@
         <v>45292</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D29,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D30,"overdue", "on track")</f>
+        <v>overdue</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E2">
@@ -1126,13 +1143,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A44" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A45" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A45" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A46" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <webPublishItems count="1">
-    <webPublishItem id="9547" divId="Container_Support_Matrix_9547" sourceType="range" sourceRef="A1:E18" destinationFile="C:\Users\srivatsans\OneDrive - NVIDIA Corporation\Desktop\container_support_eol_web.mht"/>
+    <webPublishItem id="9547" divId="Container_Support_Matrix_9547" sourceType="range" sourceRef="A1:E19" destinationFile="C:\Users\srivatsans\OneDrive - NVIDIA Corporation\Desktop\container_support_eol_web.mht"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12097C93-7C86-4E6F-A65F-11B0EA2E7284}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78245906-279E-4762-90E2-14C5E23D0CE4}"/>
   <bookViews>
     <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>11.8.0</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>12.4.1</t>
+  </si>
+  <si>
+    <t>12.5.0</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,9 +315,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -395,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -501,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,12 +667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -717,21 +717,21 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
@@ -860,25 +860,25 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -887,14 +887,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5">
-        <v>45323</v>
+        <v>45443</v>
       </c>
       <c r="D21" s="5">
         <f>EDATE(C21,6)</f>
-        <v>45505</v>
+        <v>45626</v>
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D21,"overdue", "planned")</f>
@@ -903,14 +903,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ref="D22:D30" si="0">EDATE(C22,6)</f>
-        <v>45444</v>
+        <f>EDATE(C22,6)</f>
+        <v>45505</v>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
@@ -918,63 +918,63 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45261</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:D31" si="0">EDATE(C23,6)</f>
+        <v>45444</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>45200</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>45383</v>
       </c>
-      <c r="E23" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
+      <c r="E24" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D24,"overdue", "planned")</f>
         <v>overdue</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>45017</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" ref="E24:E29" ca="1" si="1">IF(TODAY()&gt;D24,"overdue", "on track")</f>
+      <c r="E25" s="4" t="str">
+        <f t="shared" ref="E25:E30" ca="1" si="1">IF(TODAY()&gt;D25,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <v>44958</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>45139</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>overdue</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
-        <v>45108</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>45292</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -982,8 +982,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>21</v>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="5">
         <v>45108</v>
@@ -998,8 +998,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>22</v>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="5">
         <v>45108</v>
@@ -1014,8 +1014,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>23</v>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C29" s="5">
         <v>45108</v>
@@ -1030,8 +1030,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>24</v>
+      <c r="B30" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C30" s="5">
         <v>45108</v>
@@ -1041,76 +1041,92 @@
         <v>45292</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D30,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D31,"overdue", "on track")</f>
+        <v>overdue</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1143,8 +1159,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A45" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A46" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A46" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A47" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/tags/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/EOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78245906-279E-4762-90E2-14C5E23D0CE4}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20C33496-0C00-4FB4-AD23-0ECBE5263866}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>11.8.0</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>12.5.0</t>
+  </si>
+  <si>
+    <t>12.5.1</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +734,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -887,14 +890,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5">
-        <v>45443</v>
+        <v>45488</v>
       </c>
       <c r="D21" s="5">
         <f>EDATE(C21,6)</f>
-        <v>45626</v>
+        <v>45672</v>
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D21,"overdue", "planned")</f>
@@ -903,14 +906,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5">
-        <v>45323</v>
+        <v>45443</v>
       </c>
       <c r="D22" s="5">
         <f>EDATE(C22,6)</f>
-        <v>45505</v>
+        <v>45626</v>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
@@ -919,14 +922,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" ref="D23:D31" si="0">EDATE(C23,6)</f>
-        <v>45444</v>
+        <f>EDATE(C23,6)</f>
+        <v>45505</v>
       </c>
       <c r="E23" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
@@ -935,14 +938,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="5">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>45383</v>
+        <f t="shared" ref="D24:D32" si="0">EDATE(C24,6)</f>
+        <v>45444</v>
       </c>
       <c r="E24" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D24,"overdue", "planned")</f>
@@ -951,46 +954,46 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" ref="E25:E30" ca="1" si="1">IF(TODAY()&gt;D25,"overdue", "on track")</f>
+        <f ca="1">IF(TODAY()&gt;D25,"overdue", "planned")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E26:E31" ca="1" si="1">IF(TODAY()&gt;D26,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45139</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -999,7 +1002,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
         <v>45108</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="5">
         <v>45108</v>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5">
         <v>45108</v>
@@ -1047,7 +1050,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="5">
         <v>45108</v>
@@ -1057,76 +1060,92 @@
         <v>45292</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D31,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D32,"overdue", "on track")</f>
+        <v>overdue</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1159,8 +1178,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A47" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A47" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A48" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/EOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20C33496-0C00-4FB4-AD23-0ECBE5263866}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA0049C-C869-4ABC-B2E3-87B2C2E8478A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>11.8.0</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>12.5.1</t>
+  </si>
+  <si>
+    <t>12.6.0</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,6 +342,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +738,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -748,7 +752,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
@@ -762,7 +766,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
@@ -776,45 +780,41 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>25</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>25</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -863,57 +863,51 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5">
-        <v>45488</v>
-      </c>
-      <c r="D21" s="5">
-        <f>EDATE(C21,6)</f>
-        <v>45672</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D21,"overdue", "planned")</f>
-        <v>planned</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
-        <v>45443</v>
+        <v>45488</v>
       </c>
       <c r="D22" s="5">
         <f>EDATE(C22,6)</f>
-        <v>45626</v>
+        <v>45672</v>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
@@ -922,14 +916,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
-        <v>45323</v>
+        <v>45443</v>
       </c>
       <c r="D23" s="5">
         <f>EDATE(C23,6)</f>
-        <v>45505</v>
+        <v>45626</v>
       </c>
       <c r="E23" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
@@ -938,14 +932,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" ref="D24:D32" si="0">EDATE(C24,6)</f>
-        <v>45444</v>
+        <f>EDATE(C24,6)</f>
+        <v>45505</v>
       </c>
       <c r="E24" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D24,"overdue", "planned")</f>
@@ -954,14 +948,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>45383</v>
+        <f t="shared" ref="D25:D33" si="0">EDATE(C25,6)</f>
+        <v>45444</v>
       </c>
       <c r="E25" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D25,"overdue", "planned")</f>
@@ -970,46 +964,46 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="5">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" ref="E26:E31" ca="1" si="1">IF(TODAY()&gt;D26,"overdue", "on track")</f>
+        <f ca="1">IF(TODAY()&gt;D26,"overdue", "planned")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="5">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E27:E32" ca="1" si="1">IF(TODAY()&gt;D27,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C28" s="5">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45139</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1018,7 +1012,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5">
         <v>45108</v>
@@ -1034,7 +1028,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="5">
         <v>45108</v>
@@ -1050,7 +1044,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="5">
         <v>45108</v>
@@ -1066,7 +1060,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5">
         <v>45108</v>
@@ -1076,83 +1070,99 @@
         <v>45292</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D32,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D33,"overdue", "on track")</f>
+        <v>overdue</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E2">
@@ -1178,13 +1188,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A47" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A48" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A48" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A49" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <webPublishItems count="1">
-    <webPublishItem id="9547" divId="Container_Support_Matrix_9547" sourceType="range" sourceRef="A1:E19" destinationFile="C:\Users\srivatsans\OneDrive - NVIDIA Corporation\Desktop\container_support_eol_web.mht"/>
+    <webPublishItem id="9547" divId="Container_Support_Matrix_9547" sourceType="range" sourceRef="A1:E20" destinationFile="C:\Users\srivatsans\OneDrive - NVIDIA Corporation\Desktop\container_support_eol_web.mht"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/EOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA0049C-C869-4ABC-B2E3-87B2C2E8478A}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F861DF-DFF7-47B4-92E1-705977300D37}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>11.8.0</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>12.6.0</t>
+  </si>
+  <si>
+    <t>12.6.1</t>
   </si>
 </sst>
 </file>
@@ -330,6 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,7 +346,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,6 +362,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -674,12 +681,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -729,16 +736,16 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -879,12 +886,12 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -900,14 +907,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
-        <v>45488</v>
+        <v>45540</v>
       </c>
       <c r="D22" s="5">
         <f>EDATE(C22,6)</f>
-        <v>45672</v>
+        <v>45721</v>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
@@ -916,14 +923,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5">
-        <v>45443</v>
+        <v>45488</v>
       </c>
       <c r="D23" s="5">
         <f>EDATE(C23,6)</f>
-        <v>45626</v>
+        <v>45672</v>
       </c>
       <c r="E23" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
@@ -932,30 +939,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5">
-        <v>45323</v>
+        <v>45443</v>
       </c>
       <c r="D24" s="5">
         <f>EDATE(C24,6)</f>
-        <v>45505</v>
+        <v>45626</v>
       </c>
       <c r="E24" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D24,"overdue", "planned")</f>
-        <v>overdue</v>
+        <v>planned</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ref="D25:D33" si="0">EDATE(C25,6)</f>
-        <v>45444</v>
+        <f>EDATE(C25,6)</f>
+        <v>45505</v>
       </c>
       <c r="E25" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D25,"overdue", "planned")</f>
@@ -964,14 +971,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>45383</v>
+        <f t="shared" ref="D26:D34" si="0">EDATE(C26,6)</f>
+        <v>45444</v>
       </c>
       <c r="E26" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;D26,"overdue", "planned")</f>
@@ -980,46 +987,46 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" ref="E27:E32" ca="1" si="1">IF(TODAY()&gt;D27,"overdue", "on track")</f>
+        <f ca="1">IF(TODAY()&gt;D27,"overdue", "planned")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="5">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E28:E33" ca="1" si="1">IF(TODAY()&gt;D28,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45139</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1028,7 +1035,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5">
         <v>45108</v>
@@ -1044,7 +1051,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="5">
         <v>45108</v>
@@ -1060,7 +1067,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5">
         <v>45108</v>
@@ -1076,7 +1083,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="5">
         <v>45108</v>
@@ -1086,76 +1093,92 @@
         <v>45292</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D33,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D34,"overdue", "on track")</f>
+        <v>overdue</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1188,8 +1211,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A48" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A49" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A49" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A50" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/srivatsans_nvidia_com/Documents/Desktop/EOL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\srivatsans\gitlab\cuda-installer\containers-g\cuda\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{858D4462-07EF-47A2-87C3-9770D05C757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F861DF-DFF7-47B4-92E1-705977300D37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D53993B-A8CB-4E1A-9738-C0F0C16473C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
+    <workbookView xWindow="1152" yWindow="600" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>11.8.0</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>12.6.1</t>
+  </si>
+  <si>
+    <t>12.6.2</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +744,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -907,278 +906,294 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5">
-        <v>45540</v>
+        <v>45579</v>
       </c>
       <c r="D22" s="5">
         <f>EDATE(C22,6)</f>
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D22,"overdue", "planned")</f>
+        <f t="shared" ref="E22:E28" ca="1" si="0">IF(TODAY()&gt;D22,"overdue", "planned")</f>
         <v>planned</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5">
-        <v>45488</v>
+        <v>45540</v>
       </c>
       <c r="D23" s="5">
         <f>EDATE(C23,6)</f>
-        <v>45672</v>
+        <v>45721</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>planned</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5">
-        <v>45443</v>
+        <v>45488</v>
       </c>
       <c r="D24" s="5">
         <f>EDATE(C24,6)</f>
-        <v>45626</v>
+        <v>45672</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D24,"overdue", "planned")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>planned</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5">
-        <v>45323</v>
+        <v>45443</v>
       </c>
       <c r="D25" s="5">
         <f>EDATE(C25,6)</f>
-        <v>45505</v>
+        <v>45626</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D25,"overdue", "planned")</f>
-        <v>overdue</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>planned</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" ref="D26:D34" si="0">EDATE(C26,6)</f>
-        <v>45444</v>
+        <f>EDATE(C26,6)</f>
+        <v>45505</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D26,"overdue", "planned")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="5">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>45383</v>
+        <f t="shared" ref="D27:D35" si="1">EDATE(C27,6)</f>
+        <v>45444</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D27,"overdue", "planned")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="5">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>45200</v>
+        <f t="shared" si="1"/>
+        <v>45383</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" ref="E28:E33" ca="1" si="1">IF(TODAY()&gt;D28,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="5">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>45139</v>
+        <f t="shared" si="1"/>
+        <v>45200</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E29:E34" ca="1" si="2">IF(TODAY()&gt;D29,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C30" s="5">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>45292</v>
+        <f t="shared" si="1"/>
+        <v>45139</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C31" s="5">
         <v>45108</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45292</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="5">
         <v>45108</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45292</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="5">
         <v>45108</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45292</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="5">
         <v>45108</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45292</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D34,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>45292</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D35,"overdue", "on track")</f>
+        <v>overdue</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1211,8 +1226,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A49" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A50" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A50" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A51" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/doc/container_tags.xlsx
+++ b/doc/container_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\srivatsans\gitlab\cuda-installer\containers-g\cuda\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D53993B-A8CB-4E1A-9738-C0F0C16473C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C73891-6C1F-4666-8772-DE0205E0D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="600" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
+    <workbookView xWindow="2688" yWindow="600" windowWidth="20640" windowHeight="16680" xr2:uid="{5ADAA6C5-3FC4-485E-AC2B-0526B6C75DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>11.8.0</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>12.6.2</t>
+  </si>
+  <si>
+    <t>12.6.3</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174569B-432C-4AEF-8100-B12D045F7A7D}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +747,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -906,294 +909,310 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5">
-        <v>45579</v>
+        <v>45629</v>
       </c>
       <c r="D22" s="5">
         <f>EDATE(C22,6)</f>
-        <v>45761</v>
+        <v>45811</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" ref="E22:E28" ca="1" si="0">IF(TODAY()&gt;D22,"overdue", "planned")</f>
+        <f t="shared" ref="E22" ca="1" si="0">IF(TODAY()&gt;D22,"overdue", "planned")</f>
         <v>planned</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5">
-        <v>45540</v>
+        <v>45579</v>
       </c>
       <c r="D23" s="5">
         <f>EDATE(C23,6)</f>
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="E23:E29" ca="1" si="1">IF(TODAY()&gt;D23,"overdue", "planned")</f>
         <v>planned</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5">
-        <v>45488</v>
+        <v>45540</v>
       </c>
       <c r="D24" s="5">
         <f>EDATE(C24,6)</f>
-        <v>45672</v>
+        <v>45721</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>planned</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
-        <v>45443</v>
+        <v>45488</v>
       </c>
       <c r="D25" s="5">
         <f>EDATE(C25,6)</f>
-        <v>45626</v>
+        <v>45672</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>planned</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5">
-        <v>45323</v>
+        <v>45443</v>
       </c>
       <c r="D26" s="5">
         <f>EDATE(C26,6)</f>
-        <v>45505</v>
+        <v>45626</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D35" si="1">EDATE(C27,6)</f>
-        <v>45444</v>
+        <f>EDATE(C27,6)</f>
+        <v>45505</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="5">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="1"/>
-        <v>45383</v>
+        <f t="shared" ref="D28:D36" si="2">EDATE(C28,6)</f>
+        <v>45444</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="5">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="1"/>
-        <v>45200</v>
+        <f t="shared" si="2"/>
+        <v>45383</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" ref="E29:E34" ca="1" si="2">IF(TODAY()&gt;D29,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="5">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="1"/>
-        <v>45139</v>
+        <f t="shared" si="2"/>
+        <v>45200</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="E30:E35" ca="1" si="3">IF(TODAY()&gt;D30,"overdue", "on track")</f>
         <v>overdue</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C31" s="5">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="1"/>
-        <v>45292</v>
+        <f t="shared" si="2"/>
+        <v>45139</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5">
         <v>45108</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45292</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="5">
         <v>45108</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45292</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5">
         <v>45108</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45292</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>overdue</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="5">
         <v>45108</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45292</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f ca="1">IF(TODAY()&gt;D35,"overdue", "on track")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>overdue</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45108</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="2"/>
+        <v>45292</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f ca="1">IF(TODAY()&gt;D36,"overdue", "on track")</f>
+        <v>overdue</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1226,8 +1245,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A50" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
-    <hyperlink ref="A51" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
+    <hyperlink ref="A51" r:id="rId1" location="cuda-drivers" xr:uid="{D252521A-A249-48BC-9641-06BE197A289F}"/>
+    <hyperlink ref="A52" r:id="rId2" location="use-the-right-compat-package" xr:uid="{5AA131E0-0D02-458D-9D13-59E3A014B65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
